--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\alura\Excel-Domine-o-editor-de-planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5AB80-3DD7-4250-9336-89D35D60BFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEBA94E-6B47-4A9D-9A80-6E2CCD796581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{7481948A-6C86-4A05-BAA6-F4F4ED20BF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
-  <si>
-    <t>Produtos</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Tênis Infantil Vermelho</t>
   </si>
@@ -63,13 +61,36 @@
   </si>
   <si>
     <t>Tamanho</t>
+  </si>
+  <si>
+    <t>Lista de Produtos Adultos</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>Preço</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +100,35 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,18 +143,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -115,69 +163,192 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,163 +661,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685759DA-B506-44B9-8C11-B05E64B8AFB8}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37" style="4" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B3" s="8">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>29</v>
+      </c>
+      <c r="C5" s="9">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B6" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="C6" s="9">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B7" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="C7" s="9">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B8" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="C8" s="9">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B9" s="8">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="C9" s="9">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B10" s="8">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C10" s="9">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B11" s="8">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C11" s="9">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B12" s="8">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="8">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B13" s="8">
+        <v>40</v>
+      </c>
+      <c r="C13" s="9">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B14" s="8">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B15" s="8">
+        <v>36</v>
+      </c>
+      <c r="C15" s="9">
+        <v>233.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B16" s="8">
+        <v>37</v>
+      </c>
+      <c r="C16" s="9">
+        <v>233.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B17" s="8">
+        <v>38</v>
+      </c>
+      <c r="C17" s="9">
+        <v>233.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="B18" s="8">
+        <v>42</v>
+      </c>
+      <c r="C18" s="9">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="11">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2">
-        <v>37</v>
+      <c r="C19" s="12">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15">
+        <f>SUM(C3:C19)</f>
+        <v>2068.0800000000004</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C66263-BFE1-484C-A502-B13F73D15F24}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\alura\Excel-Domine-o-editor-de-planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEBA94E-6B47-4A9D-9A80-6E2CCD796581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D66363-6F8D-49C9-B3F8-1CABC876643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{7481948A-6C86-4A05-BAA6-F4F4ED20BF8B}"/>
+    <workbookView xWindow="-20610" yWindow="1935" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7481948A-6C86-4A05-BAA6-F4F4ED20BF8B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Produtos Adultos" sheetId="2" r:id="rId1"/>
+    <sheet name="Produtos Infantis" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Tênis Infantil Vermelho</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Lista de Produtos Infantis</t>
+  </si>
+  <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t>Valor do Desconto</t>
+  </si>
+  <si>
+    <t>Quantidades</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Desconto</t>
   </si>
 </sst>
 </file>
@@ -154,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -285,6 +303,41 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -299,8 +352,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -310,40 +399,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -660,233 +740,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685759DA-B506-44B9-8C11-B05E64B8AFB8}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C66263-BFE1-484C-A502-B13F73D15F24}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37" style="4" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="37" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9">
-        <v>85.5</v>
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <v>39</v>
+      </c>
+      <c r="C3" s="6">
+        <v>123.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8">
-        <v>28</v>
-      </c>
-      <c r="C4" s="9">
-        <v>89.9</v>
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6">
+        <v>123.5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="8">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9">
-        <v>89.9</v>
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6">
+        <v>123.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8">
-        <v>27</v>
-      </c>
-      <c r="C6" s="9">
-        <v>85.5</v>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6">
+        <v>233.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="8">
-        <v>28</v>
-      </c>
-      <c r="C7" s="9">
-        <v>89.9</v>
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6">
+        <v>233.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9">
-        <v>89.9</v>
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6">
+        <v>233.9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9">
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" s="8">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="8">
-        <v>29</v>
-      </c>
-      <c r="C11" s="9">
-        <v>89.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="8">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="8">
-        <v>40</v>
-      </c>
-      <c r="C13" s="9">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="8">
-        <v>41</v>
-      </c>
-      <c r="C14" s="9">
-        <v>123.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="8">
-        <v>36</v>
-      </c>
-      <c r="C15" s="9">
-        <v>233.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="8">
-        <v>37</v>
-      </c>
-      <c r="C16" s="9">
-        <v>233.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="8">
-        <v>38</v>
-      </c>
-      <c r="C17" s="9">
-        <v>233.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8">
-        <v>42</v>
-      </c>
-      <c r="C18" s="9">
         <v>99.99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="11">
-        <v>37</v>
-      </c>
-      <c r="C19" s="12">
-        <v>99.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+    <row r="11" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="15">
-        <f>SUM(C3:C19)</f>
-        <v>2068.0800000000004</v>
+      <c r="C11" s="12">
+        <f>SUM(C3:C10)</f>
+        <v>1272.18</v>
       </c>
     </row>
   </sheetData>
@@ -898,13 +879,286 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C66263-BFE1-484C-A502-B13F73D15F24}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685759DA-B506-44B9-8C11-B05E64B8AFB8}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18">
+        <v>85.5</v>
+      </c>
+      <c r="D3" s="18">
+        <f>C3*$C$13</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <f>(C3-D3)*E3</f>
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5">
+        <v>28</v>
+      </c>
+      <c r="C4" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="D4" s="18">
+        <f>C4*$C$13</f>
+        <v>8.99</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" ref="F4:F11" si="0">(C4-D4)*E4</f>
+        <v>242.73000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="D5" s="18">
+        <f>C5*$C$13</f>
+        <v>8.99</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>80.910000000000011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5">
+        <v>27</v>
+      </c>
+      <c r="C6" s="18">
+        <v>85.5</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" ref="D6:D11" si="1">C6*$C$13</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E6" s="17">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>384.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>242.73000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>242.73000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>27</v>
+      </c>
+      <c r="C9" s="18">
+        <v>85.5</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="1"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>76.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>28</v>
+      </c>
+      <c r="C10" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>161.82000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>89.9</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="1"/>
+        <v>8.99</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>242.73000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12">
+        <f>SUM(C3:C11)</f>
+        <v>795.9</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20">
+        <f>SUM(E3:E11)</f>
+        <v>23</v>
+      </c>
+      <c r="F12" s="12">
+        <f>SUM(F3:F11)</f>
+        <v>1829.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C13:F13"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\alura\Excel-Domine-o-editor-de-planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D66363-6F8D-49C9-B3F8-1CABC876643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505E8091-5743-424B-96E9-97CD77E27B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="1935" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7481948A-6C86-4A05-BAA6-F4F4ED20BF8B}"/>
+    <workbookView xWindow="-20610" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{7481948A-6C86-4A05-BAA6-F4F4ED20BF8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Produtos Adultos" sheetId="2" r:id="rId1"/>
     <sheet name="Produtos Infantis" sheetId="1" r:id="rId2"/>
+    <sheet name="Gráficos" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -390,15 +394,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -412,6 +407,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,6 +446,2368 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0180321433648621E-2"/>
+          <c:y val="7.8205268262749705E-2"/>
+          <c:w val="0.91536557298992227"/>
+          <c:h val="0.49548575980523185"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Produtos Infantis'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valor Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Produtos Infantis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Produtos Infantis'!$F$3:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>_-"R$"* #,##0.00_-;\-"R$"* #,##0.00_-;_-"R$"* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>153.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.910000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>384.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>161.82000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242.73000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-63DD-4ECB-BFB4-47C3846BB044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="590304824"/>
+        <c:axId val="590301872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="590304824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590301872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="590301872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590304824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Composição do Estoque</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="50"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Produtos Infantis'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantidades</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6"/>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="50800">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6C72-4E89-9A56-289E78B378F1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'[1]Produtos Infantis'!$A$3:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tênis Infantil Vermelho</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Tênis Infantil Azul</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Tênis Infantil Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Produtos Infantis'!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-6C72-4E89-9A56-289E78B378F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1"/>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="10000"/>
+          <a:lumOff val="90000"/>
+        </a:schemeClr>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="267">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="10000"/>
+            <a:lumOff val="90000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="50800">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD6E4BE-8461-4399-9A4D-9E9BB13F2771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>587827</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>489856</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70EB9BF1-FB74-4104-BAC5-CDDF18FDD15A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Produtos Adultos"/>
+      <sheetName val="Produtos Infantis"/>
+      <sheetName val="Gráficos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>Quantidades</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>Valor Total</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Tênis Infantil Vermelho</v>
+          </cell>
+          <cell r="E3">
+            <v>2</v>
+          </cell>
+          <cell r="F3">
+            <v>153.9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Tênis Infantil Vermelho</v>
+          </cell>
+          <cell r="E4">
+            <v>3</v>
+          </cell>
+          <cell r="F4">
+            <v>242.73000000000002</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Tênis Infantil Vermelho</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+          <cell r="F5">
+            <v>80.910000000000011</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Tênis Infantil Azul</v>
+          </cell>
+          <cell r="E6">
+            <v>5</v>
+          </cell>
+          <cell r="F6">
+            <v>384.75</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Tênis Infantil Azul</v>
+          </cell>
+          <cell r="E7">
+            <v>3</v>
+          </cell>
+          <cell r="F7">
+            <v>242.73000000000002</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Tênis Infantil Azul</v>
+          </cell>
+          <cell r="E8">
+            <v>3</v>
+          </cell>
+          <cell r="F8">
+            <v>242.73000000000002</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Tênis Infantil Rosa</v>
+          </cell>
+          <cell r="E9">
+            <v>1</v>
+          </cell>
+          <cell r="F9">
+            <v>76.95</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Tênis Infantil Rosa</v>
+          </cell>
+          <cell r="E10">
+            <v>2</v>
+          </cell>
+          <cell r="F10">
+            <v>161.82000000000002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Tênis Infantil Rosa</v>
+          </cell>
+          <cell r="E11">
+            <v>3</v>
+          </cell>
+          <cell r="F11">
+            <v>242.73000000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C66263-BFE1-484C-A502-B13F73D15F24}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -755,11 +3121,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -882,8 +3248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685759DA-B506-44B9-8C11-B05E64B8AFB8}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,14 +3262,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -926,23 +3292,23 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>27</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="15">
         <v>85.5</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="15">
         <f>C3*$C$13</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="15">
         <f>(C3-D3)*E3</f>
         <v>153.9</v>
       </c>
@@ -957,14 +3323,14 @@
       <c r="C4" s="6">
         <v>89.9</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="15">
         <f>C4*$C$13</f>
         <v>8.99</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F11" si="0">(C4-D4)*E4</f>
         <v>242.73000000000002</v>
       </c>
@@ -979,14 +3345,14 @@
       <c r="C5" s="6">
         <v>89.9</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="15">
         <f>C5*$C$13</f>
         <v>8.99</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="15">
         <f t="shared" si="0"/>
         <v>80.910000000000011</v>
       </c>
@@ -998,17 +3364,17 @@
       <c r="B6" s="5">
         <v>27</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="15">
         <v>85.5</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <f t="shared" ref="D6:D11" si="1">C6*$C$13</f>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="15">
         <f t="shared" si="0"/>
         <v>384.75</v>
       </c>
@@ -1023,14 +3389,14 @@
       <c r="C7" s="6">
         <v>89.9</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="15">
         <f t="shared" si="0"/>
         <v>242.73000000000002</v>
       </c>
@@ -1045,14 +3411,14 @@
       <c r="C8" s="6">
         <v>89.9</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
       <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="15">
         <f t="shared" si="0"/>
         <v>242.73000000000002</v>
       </c>
@@ -1064,17 +3430,17 @@
       <c r="B9" s="5">
         <v>27</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="15">
         <v>85.5</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <f t="shared" si="1"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>1</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="15">
         <f t="shared" si="0"/>
         <v>76.95</v>
       </c>
@@ -1089,14 +3455,14 @@
       <c r="C10" s="6">
         <v>89.9</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="15">
         <f t="shared" si="0"/>
         <v>161.82000000000002</v>
       </c>
@@ -1111,14 +3477,14 @@
       <c r="C11" s="6">
         <v>89.9</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <f t="shared" si="1"/>
         <v>8.99</v>
       </c>
       <c r="E11" s="5">
         <v>3</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>242.73000000000002</v>
       </c>
@@ -1132,8 +3498,8 @@
         <f>SUM(C3:C11)</f>
         <v>795.9</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17">
         <f>SUM(E3:E11)</f>
         <v>23</v>
       </c>
@@ -1161,4 +3527,19 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829B582-E21D-4D33-B5CE-AD4FD3BE364F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>